--- a/data/trans_orig/P1409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>25057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16573</v>
+        <v>16276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36457</v>
+        <v>36974</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02570846450959965</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0170037512179784</v>
+        <v>0.0166998655215984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03740519750891178</v>
+        <v>0.03793640871995774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -764,19 +764,19 @@
         <v>42455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29564</v>
+        <v>29648</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56543</v>
+        <v>56372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03176312318698636</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02211887563783184</v>
+        <v>0.02218178135612909</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.042303044270789</v>
+        <v>0.04217534744407725</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -785,19 +785,19 @@
         <v>67512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52728</v>
+        <v>52109</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87040</v>
+        <v>87402</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02920991022400305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02281359815526459</v>
+        <v>0.02254592725718349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03765931169987564</v>
+        <v>0.03781573422399861</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>949586</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>938186</v>
+        <v>937669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>958070</v>
+        <v>958367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9742915354904004</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9625948024910882</v>
+        <v>0.9620635912800423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9829962487820216</v>
+        <v>0.9833001344784016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1208</v>
@@ -835,19 +835,19 @@
         <v>1294159</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1280071</v>
+        <v>1280242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1307050</v>
+        <v>1306966</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9682368768130136</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.957696955729211</v>
+        <v>0.9578246525559228</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9778811243621681</v>
+        <v>0.9778182186438709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2092</v>
@@ -856,19 +856,19 @@
         <v>2243745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2224217</v>
+        <v>2223855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2258529</v>
+        <v>2259148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9707900897759969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9623406883001244</v>
+        <v>0.9621842657760015</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9771864018447355</v>
+        <v>0.9774540727428165</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>32425</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22152</v>
+        <v>23010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45238</v>
+        <v>44402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01651006340368679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01127908140984667</v>
+        <v>0.0117163937534363</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02303421801630049</v>
+        <v>0.02260847995382171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -981,19 +981,19 @@
         <v>41262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29275</v>
+        <v>30319</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55033</v>
+        <v>57055</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02351677205293825</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01668459846127137</v>
+        <v>0.01728008334460028</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03136514787756284</v>
+        <v>0.03251740505366636</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -1002,19 +1002,19 @@
         <v>73687</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55496</v>
+        <v>59337</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>91705</v>
+        <v>92468</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01981616845770557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01492396964131677</v>
+        <v>0.01595695703317889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02466150253822524</v>
+        <v>0.02486669098837268</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1931532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1918719</v>
+        <v>1919555</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1941805</v>
+        <v>1940947</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9834899365963132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9769657819836998</v>
+        <v>0.9773915200461785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9887209185901533</v>
+        <v>0.9882836062465638</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1595</v>
@@ -1052,19 +1052,19 @@
         <v>1713330</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1699559</v>
+        <v>1697537</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1725317</v>
+        <v>1724273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9764832279470618</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9686348521224369</v>
+        <v>0.9674825949463336</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9833154015387285</v>
+        <v>0.9827199166553997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3419</v>
@@ -1073,19 +1073,19 @@
         <v>3644862</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3626844</v>
+        <v>3626081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3663053</v>
+        <v>3659212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801838315422944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9753384974617746</v>
+        <v>0.9751333090116274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.985076030358683</v>
+        <v>0.9840430429668211</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>7939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3131</v>
+        <v>3744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17298</v>
+        <v>17916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01650000765137938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006506235856605595</v>
+        <v>0.007781318963123478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03594815330000629</v>
+        <v>0.03723287354148516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1198,19 +1198,19 @@
         <v>12463</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7055</v>
+        <v>6788</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20671</v>
+        <v>21434</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02717439645356125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01538252450151445</v>
+        <v>0.01480140735723319</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0450719871424782</v>
+        <v>0.04673428434617998</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1219,19 +1219,19 @@
         <v>20403</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12702</v>
+        <v>12304</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30718</v>
+        <v>32138</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02170913863693948</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01351511820801433</v>
+        <v>0.01309236742576763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03268485341931547</v>
+        <v>0.03419644051226318</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>473242</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463883</v>
+        <v>463265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>478050</v>
+        <v>477437</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9834999923486206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9640518466999938</v>
+        <v>0.9627671264585149</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934937641433944</v>
+        <v>0.9922186810368765</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>400</v>
@@ -1269,19 +1269,19 @@
         <v>446168</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437960</v>
+        <v>437197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>451576</v>
+        <v>451843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9728256035464388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9549280128575218</v>
+        <v>0.95326571565382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9846174754984856</v>
+        <v>0.9851985926427668</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>831</v>
@@ -1290,19 +1290,19 @@
         <v>919410</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>909095</v>
+        <v>907675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>927111</v>
+        <v>927509</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9782908613630605</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9673151465806846</v>
+        <v>0.9658035594877371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9864848817919859</v>
+        <v>0.9869076325742324</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>65421</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50804</v>
+        <v>50366</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83544</v>
+        <v>84606</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01913020676182207</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01485577372093266</v>
+        <v>0.01472797467748378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02442974669098139</v>
+        <v>0.02474024385116023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>88</v>
@@ -1415,19 +1415,19 @@
         <v>96180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77122</v>
+        <v>78058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>117477</v>
+        <v>119090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02709431298980909</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0217254346976847</v>
+        <v>0.02198909796096003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03309351294433489</v>
+        <v>0.03354796523475112</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>151</v>
@@ -1436,19 +1436,19 @@
         <v>161602</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135113</v>
+        <v>135909</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189321</v>
+        <v>187191</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02318656608694846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01938604816731437</v>
+        <v>0.01950025910496852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02716369814659617</v>
+        <v>0.02685817324586175</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3354361</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3336238</v>
+        <v>3335176</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3368978</v>
+        <v>3369416</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9808697932381779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9755702533090188</v>
+        <v>0.9752597561488401</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9851442262790674</v>
+        <v>0.9852720253225163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3203</v>
@@ -1486,19 +1486,19 @@
         <v>3453657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3432360</v>
+        <v>3430747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3472715</v>
+        <v>3471779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9729056870101909</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9669064870556651</v>
+        <v>0.9664520347652488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9782745653023153</v>
+        <v>0.97801090203904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6342</v>
@@ -1507,19 +1507,19 @@
         <v>6808017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6780298</v>
+        <v>6782428</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6834506</v>
+        <v>6833710</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9768134339130515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9728363018534038</v>
+        <v>0.9731418267541384</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9806139518326853</v>
+        <v>0.9804997408950316</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>23541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15817</v>
+        <v>15543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33191</v>
+        <v>33080</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03120680843932269</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02096759660375797</v>
+        <v>0.02060510971026996</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04399980952089994</v>
+        <v>0.04385294696615336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -1871,19 +1871,19 @@
         <v>44423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31742</v>
+        <v>31445</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59014</v>
+        <v>59560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04466124155833126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03191219953484992</v>
+        <v>0.03161347023555959</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05933036417519579</v>
+        <v>0.05987969883007625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>64</v>
@@ -1892,19 +1892,19 @@
         <v>67964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52288</v>
+        <v>53552</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87740</v>
+        <v>85935</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03885834393850856</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02989599068876437</v>
+        <v>0.03061838161689431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05016555931100331</v>
+        <v>0.0491337711246301</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>730806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>721156</v>
+        <v>721267</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>738530</v>
+        <v>738804</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9687931915606773</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9560001904791</v>
+        <v>0.9561470530338467</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9790324033962416</v>
+        <v>0.9793948902897301</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>854</v>
@@ -1942,19 +1942,19 @@
         <v>950237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>935646</v>
+        <v>935100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>962918</v>
+        <v>963215</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9553387584416687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9406696358248043</v>
+        <v>0.9401203011699237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9680878004651501</v>
+        <v>0.9683865297644405</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1590</v>
@@ -1963,19 +1963,19 @@
         <v>1681043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1661267</v>
+        <v>1663072</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1696719</v>
+        <v>1695455</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9611416560614915</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9498344406889965</v>
+        <v>0.9508662288753704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9701040093112354</v>
+        <v>0.9693816183831058</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>52956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38695</v>
+        <v>40246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70710</v>
+        <v>69390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02550399700693542</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01863585817597941</v>
+        <v>0.019382965929337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03405436532714366</v>
+        <v>0.03341888571330753</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -2088,19 +2088,19 @@
         <v>75579</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61003</v>
+        <v>59300</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92857</v>
+        <v>94198</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03801203497466756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03068113124510213</v>
+        <v>0.02982457349461244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04670193612554111</v>
+        <v>0.04737609063417807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -2109,19 +2109,19 @@
         <v>128535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>107460</v>
+        <v>106508</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152891</v>
+        <v>151103</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03162248651262605</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02643735043388444</v>
+        <v>0.02620314193687016</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03761452263582075</v>
+        <v>0.03717457048585063</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2023429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2005675</v>
+        <v>2006995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2037690</v>
+        <v>2036139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9744960029930646</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9659456346728564</v>
+        <v>0.9665811142866925</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9813641418240207</v>
+        <v>0.980617034070663</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1835</v>
@@ -2159,19 +2159,19 @@
         <v>1912721</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1895443</v>
+        <v>1894102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1927297</v>
+        <v>1929000</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9619879650253325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532980638744589</v>
+        <v>0.9526239093658219</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9693188687548978</v>
+        <v>0.9701754265053875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3737</v>
@@ -2180,19 +2180,19 @@
         <v>3936150</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3911794</v>
+        <v>3913582</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3957225</v>
+        <v>3958177</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.968377513487374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9623854773641791</v>
+        <v>0.9628254295141493</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9735626495661154</v>
+        <v>0.9737968580631294</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>9688</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4020</v>
+        <v>4332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19098</v>
+        <v>19479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01771451814153092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007351578894191928</v>
+        <v>0.007921417528259138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03492109677998358</v>
+        <v>0.0356189327347863</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -2305,19 +2305,19 @@
         <v>20126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13187</v>
+        <v>12699</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31764</v>
+        <v>30883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03665003290678453</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02401337163639298</v>
+        <v>0.02312559325064125</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05784236638756232</v>
+        <v>0.05623799348631871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -2326,19 +2326,19 @@
         <v>29814</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20545</v>
+        <v>20737</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42582</v>
+        <v>42245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02720174738878355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0187450612515432</v>
+        <v>0.01891998146645084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03885101223487003</v>
+        <v>0.03854395610702165</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>537198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527788</v>
+        <v>527407</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542866</v>
+        <v>542554</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9822854818584691</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9650789032200169</v>
+        <v>0.9643810672652138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9926484211058082</v>
+        <v>0.9920785824717409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>506</v>
@@ -2376,19 +2376,19 @@
         <v>529014</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>517376</v>
+        <v>518257</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>535953</v>
+        <v>536441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9633499670932155</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9421576336124378</v>
+        <v>0.9437620065136814</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9759866283636071</v>
+        <v>0.9768744067493589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>999</v>
@@ -2397,19 +2397,19 @@
         <v>1066213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1053445</v>
+        <v>1053782</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1075482</v>
+        <v>1075290</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9727982526112164</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9611489877651299</v>
+        <v>0.9614560438929785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9812549387484568</v>
+        <v>0.9810800185335492</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>86185</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70555</v>
+        <v>69313</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107768</v>
+        <v>105252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02551641365418493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02088889342140587</v>
+        <v>0.02052115894468417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03190658723185802</v>
+        <v>0.03116170781666724</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -2522,19 +2522,19 @@
         <v>140128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118455</v>
+        <v>119927</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164568</v>
+        <v>169166</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03967273817951571</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.033536777160443</v>
+        <v>0.03395333726222259</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04659225113166771</v>
+        <v>0.04789386932306138</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -2543,19 +2543,19 @@
         <v>226313</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>195395</v>
+        <v>197929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>256529</v>
+        <v>260939</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03275282450887932</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02827823282285715</v>
+        <v>0.02864503717818512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03712584018943144</v>
+        <v>0.03776412517235204</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3291433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3269850</v>
+        <v>3272366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3307063</v>
+        <v>3308305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9744835863458151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.968093412768142</v>
+        <v>0.9688382921833323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791111065785941</v>
+        <v>0.9794788410553158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3195</v>
@@ -2593,19 +2593,19 @@
         <v>3391972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3367532</v>
+        <v>3362934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3413645</v>
+        <v>3412173</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9603272618204843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9534077488683323</v>
+        <v>0.9521061306769383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9664632228395571</v>
+        <v>0.9660466627377766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6326</v>
@@ -2614,19 +2614,19 @@
         <v>6683405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6653189</v>
+        <v>6648779</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6714323</v>
+        <v>6711789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9672471754911207</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9628741598105685</v>
+        <v>0.9622358748276479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9717217671771429</v>
+        <v>0.9713549628218149</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>27762</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19463</v>
+        <v>18941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37543</v>
+        <v>38933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04818553246942284</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03378103364083488</v>
+        <v>0.0328756676967342</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06516274717387041</v>
+        <v>0.06757575742315722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -2978,19 +2978,19 @@
         <v>49714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39652</v>
+        <v>39875</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60842</v>
+        <v>60998</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06066519486933805</v>
+        <v>0.06066519486933806</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04838704559529015</v>
+        <v>0.04865857257751078</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07424417950567289</v>
+        <v>0.07443502440529505</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -2999,19 +2999,19 @@
         <v>77476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>63099</v>
+        <v>65512</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90363</v>
+        <v>93785</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05551331828119491</v>
+        <v>0.0555133182811949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04521176324933849</v>
+        <v>0.04694094009991625</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06474737226771032</v>
+        <v>0.06719905858461736</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>548381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>538600</v>
+        <v>537210</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556680</v>
+        <v>557202</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9518144675305773</v>
+        <v>0.9518144675305771</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9348372528261296</v>
+        <v>0.9324242425768428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9662189663591652</v>
+        <v>0.9671243323032657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1334</v>
@@ -3049,19 +3049,19 @@
         <v>769765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>758637</v>
+        <v>758481</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>779827</v>
+        <v>779604</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9393348051306618</v>
+        <v>0.9393348051306619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.925755820494327</v>
+        <v>0.9255649755947049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9516129544047097</v>
+        <v>0.9513414274224895</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1988</v>
@@ -3070,19 +3070,19 @@
         <v>1318147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305260</v>
+        <v>1301838</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1332524</v>
+        <v>1330111</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9444866817188051</v>
+        <v>0.9444866817188048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9352526277322896</v>
+        <v>0.9328009414153826</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9547882367506615</v>
+        <v>0.9530590599000837</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>78652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59376</v>
+        <v>58429</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108002</v>
+        <v>102873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03529056696539969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02664143067762922</v>
+        <v>0.02621631098841221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.048459382379872</v>
+        <v>0.04615813688343257</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -3195,19 +3195,19 @@
         <v>95148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78349</v>
+        <v>78776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>113953</v>
+        <v>113952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04385378155344544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03611139741449183</v>
+        <v>0.03630816170388353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05252136056351964</v>
+        <v>0.05252097854061664</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -3216,19 +3216,19 @@
         <v>173800</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>146760</v>
+        <v>149603</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203127</v>
+        <v>206117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03951468905470582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03336698607656999</v>
+        <v>0.0340133397922284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0461824250176998</v>
+        <v>0.04686217229146791</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2150056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2120706</v>
+        <v>2125835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2169332</v>
+        <v>2170279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9647094330346002</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.951540617620128</v>
+        <v>0.9538418631165673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9733585693223707</v>
+        <v>0.9737836890115876</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2789</v>
@@ -3266,19 +3266,19 @@
         <v>2074507</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2055702</v>
+        <v>2055703</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2091306</v>
+        <v>2090879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9561462184465545</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9474786394364803</v>
+        <v>0.9474790214593836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9638886025855081</v>
+        <v>0.9636918382961163</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4719</v>
@@ -3287,19 +3287,19 @@
         <v>4224564</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4195237</v>
+        <v>4192247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4251604</v>
+        <v>4248761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9604853109452941</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9538175749823</v>
+        <v>0.9531378277085323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666330139234302</v>
+        <v>0.9659866602077716</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>28880</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19152</v>
+        <v>17873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45764</v>
+        <v>45054</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04058501538945458</v>
+        <v>0.04058501538945457</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02691447985203212</v>
+        <v>0.02511659753152598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06431231467902512</v>
+        <v>0.06331516754780002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3412,19 +3412,19 @@
         <v>32835</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23933</v>
+        <v>24284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42787</v>
+        <v>42813</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04475009831673631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0326183465576385</v>
+        <v>0.03309603793229423</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05831352877145809</v>
+        <v>0.05834843622171831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -3433,19 +3433,19 @@
         <v>61715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48122</v>
+        <v>46822</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79571</v>
+        <v>79598</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04269947654443929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03329465762107862</v>
+        <v>0.03239512216501295</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05505428751640513</v>
+        <v>0.05507296991294328</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>682707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>665823</v>
+        <v>666533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>692435</v>
+        <v>693714</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9594149846105455</v>
+        <v>0.9594149846105452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9356876853209753</v>
+        <v>0.9366848324522004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9730855201479677</v>
+        <v>0.9748834024684743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>953</v>
@@ -3483,19 +3483,19 @@
         <v>700905</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690953</v>
+        <v>690927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>709807</v>
+        <v>709456</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9552499016832637</v>
+        <v>0.9552499016832636</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.941686471228542</v>
+        <v>0.9416515637782812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9673816534423614</v>
+        <v>0.9669039620677056</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1611</v>
@@ -3504,19 +3504,19 @@
         <v>1383612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1365756</v>
+        <v>1365729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1397205</v>
+        <v>1398505</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9573005234555608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9449457124835949</v>
+        <v>0.9449270300870564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9667053423789214</v>
+        <v>0.9676048778349871</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>135294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111384</v>
+        <v>110892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165490</v>
+        <v>164795</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03847470060335032</v>
+        <v>0.03847470060335031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03167519192213158</v>
+        <v>0.03153542654119714</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04706176410984312</v>
+        <v>0.04686403489932944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -3629,19 +3629,19 @@
         <v>177696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>157381</v>
+        <v>158364</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202365</v>
+        <v>200868</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04773096485069158</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04227393849485557</v>
+        <v>0.04253811845923239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05435718000932839</v>
+        <v>0.05395494682975887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>385</v>
@@ -3650,19 +3650,19 @@
         <v>312990</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>281996</v>
+        <v>278112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>350816</v>
+        <v>353883</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04323480832073315</v>
+        <v>0.04323480832073316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03895343534676189</v>
+        <v>0.03841692360270121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0484598955341719</v>
+        <v>0.04888356275577337</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3381145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3350949</v>
+        <v>3351644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3405055</v>
+        <v>3405547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9615252993966498</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9529382358901569</v>
+        <v>0.9531359651006707</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9683248080778684</v>
+        <v>0.9684645734588029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5076</v>
@@ -3700,19 +3700,19 @@
         <v>3545179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3520510</v>
+        <v>3522007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3565494</v>
+        <v>3564511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9522690351493084</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9456428199906716</v>
+        <v>0.9460450531702411</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9577260615051444</v>
+        <v>0.9574618815407677</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8318</v>
@@ -3721,19 +3721,19 @@
         <v>6926323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6888497</v>
+        <v>6885430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6957317</v>
+        <v>6961201</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9567651916792668</v>
+        <v>0.9567651916792669</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9515401044658277</v>
+        <v>0.9511164372442267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9610465646532377</v>
+        <v>0.9615830763972988</v>
       </c>
     </row>
     <row r="15">
